--- a/BalanceSheet/NTNX_balance.xlsx
+++ b/BalanceSheet/NTNX_balance.xlsx
@@ -1384,19 +1384,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1473000.0</v>
+        <v>52000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-4075000.0</v>
+        <v>48000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-10899000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-2247000.0</v>
+        <v>68000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-8636000.0</v>
+        <v>77000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>83381000.0</v>
